--- a/biology/Zoologie/Globidensini/Globidensini.xlsx
+++ b/biology/Zoologie/Globidensini/Globidensini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Globidensini constituent une tribu éteinte de mosasaurinés, un groupe diversifié de squamates marins du Crétacé supérieur et qui ont été retrouvés en Amérique du Nord, Europe, Afrique et en Asie[1].
-La tribu comprend les genres Globidens (de loin le genre le mieux étudié), Harranasaurus, Carinodens[2] et Igdamanosaurus[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Globidensini constituent une tribu éteinte de mosasaurinés, un groupe diversifié de squamates marins du Crétacé supérieur et qui ont été retrouvés en Amérique du Nord, Europe, Afrique et en Asie.
+La tribu comprend les genres Globidens (de loin le genre le mieux étudié), Harranasaurus, Carinodens et Igdamanosaurus,.
 </t>
         </is>
       </c>
@@ -512,11 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La tribu Globidensini est décrite par Dale Russell en 1967.
-Cladogramme Mosasaurinae
-Le cladogramme suivant est modifié à partir d'un arbre de crédibilité de clade maximum déduit par une analyse bayésienne dans la plus récente analyse phylogénétique majeure de la sous-famille des Mosasaurinae par Madzia &amp; Cau (2017)[5], qui est auto-décrit comme un raffinement d'une étude plus large de Simões et al. (2017)[6] :
 </t>
         </is>
       </c>
@@ -542,10 +554,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cladogramme Mosasaurinae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant est modifié à partir d'un arbre de crédibilité de clade maximum déduit par une analyse bayésienne dans la plus récente analyse phylogénétique majeure de la sous-famille des Mosasaurinae par Madzia &amp; Cau (2017), qui est auto-décrit comme un raffinement d'une étude plus large de Simões et al. (2017) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Globidensini</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Globidensini</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Globalement, les Globidensini étaient des mosasaures de taille moyenne, Globidens atteignant environ les 6 mètres de long. Les dents de Globidens, Carinodens et Igdamanosaurus diffèrent de celles de tous les autres mosasaures en ce qu'elles sont très robustes et globulaires. La plupart des genres de mosasaures ont des dents acérées adaptées pour saisir des proies molles et glissantes comme certaines espèces de poissons et de céphalopodes comme les ammonites. Bien que certains soient clairement capables d’écraser les coquilles des proies blindées, aucun n’était aussi spécialisé que Globidens et ses proches, qui combinaient des crânes robustes et puissants avec des dents semi-sphériques capables d’écraser les coquilles d’animaux comme les ammonites, les bivalves et les petites tortues.
 </t>
